--- a/data/trans_orig/SENS_INSEGURIDAD-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/SENS_INSEGURIDAD-Estudios-trans_orig.xlsx
@@ -546,7 +546,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Percepción de inseguridad en País Vasco</t>
+          <t>Percepción de inseguridad en País Vasco (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -2609,7 +2609,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Percepción de inseguridad en Andalucia</t>
+          <t>Percepción de inseguridad en Andalucia (tasa de respuesta: 99,45%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -4672,7 +4672,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Percepción de inseguridad en C.Valenciana</t>
+          <t>Percepción de inseguridad en C.Valenciana (tasa de respuesta: 93,43%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -6735,7 +6735,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Percepción de inseguridad en Barcelona</t>
+          <t>Percepción de inseguridad en Barcelona (tasa de respuesta: 97,55%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/SENS_INSEGURIDAD-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/SENS_INSEGURIDAD-Estudios-trans_orig.xlsx
@@ -736,32 +736,32 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>68256</t>
+          <t>61360</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>64800</t>
+          <t>57911</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>71923</t>
+          <t>64513</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>74,85%</t>
+          <t>74,17%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>71,06%</t>
+          <t>70,01%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>78,87%</t>
+          <t>77,99%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -771,32 +771,32 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>94704</t>
+          <t>87236</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>90253</t>
+          <t>82921</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>98979</t>
+          <t>90974</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>74,04%</t>
+          <t>74,0%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>70,56%</t>
+          <t>70,34%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>77,38%</t>
+          <t>77,17%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -806,32 +806,32 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>162960</t>
+          <t>148595</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>156883</t>
+          <t>142788</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>168283</t>
+          <t>153934</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>74,37%</t>
+          <t>74,07%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>71,6%</t>
+          <t>71,18%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>76,8%</t>
+          <t>76,73%</t>
         </is>
       </c>
     </row>
@@ -849,32 +849,32 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>17336</t>
+          <t>16331</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>14145</t>
+          <t>13404</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>20867</t>
+          <t>19386</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>19,01%</t>
+          <t>19,74%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>15,51%</t>
+          <t>16,2%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>22,88%</t>
+          <t>23,43%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -884,32 +884,32 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>24712</t>
+          <t>23448</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>20844</t>
+          <t>20370</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>28804</t>
+          <t>27440</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>19,32%</t>
+          <t>19,89%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>16,3%</t>
+          <t>17,28%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>22,52%</t>
+          <t>23,28%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -919,32 +919,32 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>42048</t>
+          <t>39779</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>37485</t>
+          <t>34963</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>47759</t>
+          <t>44765</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>19,19%</t>
+          <t>19,83%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>17,11%</t>
+          <t>17,43%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>21,8%</t>
+          <t>22,31%</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>5604</t>
+          <t>5034</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>3909</t>
+          <t>3494</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>8091</t>
+          <t>7006</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>6,15%</t>
+          <t>6,08%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>4,29%</t>
+          <t>4,22%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>8,87%</t>
+          <t>8,47%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -997,32 +997,32 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>8496</t>
+          <t>7206</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>6418</t>
+          <t>5259</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>11572</t>
+          <t>9491</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>6,64%</t>
+          <t>6,11%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>5,02%</t>
+          <t>4,46%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>9,05%</t>
+          <t>8,05%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -1032,32 +1032,32 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>14101</t>
+          <t>12240</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>11136</t>
+          <t>9643</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>17682</t>
+          <t>15437</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
         <is>
-          <t>6,44%</t>
+          <t>6,1%</t>
         </is>
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>5,08%</t>
+          <t>4,81%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>8,07%</t>
+          <t>7,69%</t>
         </is>
       </c>
     </row>
@@ -1075,17 +1075,17 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>91197</t>
+          <t>82724</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>91197</t>
+          <t>82724</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>91197</t>
+          <t>82724</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -1110,17 +1110,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>127912</t>
+          <t>117890</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>127912</t>
+          <t>117890</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>127912</t>
+          <t>117890</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1145,17 +1145,17 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>219109</t>
+          <t>200614</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>219109</t>
+          <t>200614</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>219109</t>
+          <t>200614</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -1192,32 +1192,32 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>351997</t>
+          <t>357133</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>343232</t>
+          <t>348694</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>360194</t>
+          <t>364954</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>75,94%</t>
+          <t>76,28%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>74,05%</t>
+          <t>74,47%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>77,71%</t>
+          <t>77,95%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1227,32 +1227,32 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>334442</t>
+          <t>341047</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>325570</t>
+          <t>332499</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>342211</t>
+          <t>349592</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>76,12%</t>
+          <t>75,97%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>74,1%</t>
+          <t>74,07%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>77,89%</t>
+          <t>77,87%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -1262,32 +1262,32 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>686439</t>
+          <t>698179</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>673780</t>
+          <t>686663</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>697014</t>
+          <t>710661</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>76,03%</t>
+          <t>76,13%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>74,63%</t>
+          <t>74,87%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>77,2%</t>
+          <t>77,49%</t>
         </is>
       </c>
     </row>
@@ -1305,32 +1305,32 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>77393</t>
+          <t>80766</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>69823</t>
+          <t>73593</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>84869</t>
+          <t>88364</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>16,7%</t>
+          <t>17,25%</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>15,06%</t>
+          <t>15,72%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>18,31%</t>
+          <t>18,87%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1340,32 +1340,32 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>70980</t>
+          <t>73630</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>64580</t>
+          <t>66534</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>78388</t>
+          <t>80695</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>16,16%</t>
+          <t>16,4%</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>14,7%</t>
+          <t>14,82%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>17,84%</t>
+          <t>17,98%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
@@ -1375,32 +1375,32 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>148372</t>
+          <t>154396</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>138996</t>
+          <t>143937</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>159044</t>
+          <t>163778</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
         <is>
-          <t>16,43%</t>
+          <t>16,83%</t>
         </is>
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>15,4%</t>
+          <t>15,69%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>17,62%</t>
+          <t>17,86%</t>
         </is>
       </c>
     </row>
@@ -1418,32 +1418,32 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>34117</t>
+          <t>30316</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>29580</t>
+          <t>26021</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>40134</t>
+          <t>35321</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>7,36%</t>
+          <t>6,47%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>6,38%</t>
+          <t>5,56%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>8,66%</t>
+          <t>7,54%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1453,32 +1453,32 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>33929</t>
+          <t>34246</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>29012</t>
+          <t>29197</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>38873</t>
+          <t>39692</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>7,72%</t>
+          <t>7,63%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>6,6%</t>
+          <t>6,5%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>8,85%</t>
+          <t>8,84%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1488,32 +1488,32 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>68046</t>
+          <t>64562</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>60717</t>
+          <t>57927</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>75632</t>
+          <t>71733</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>7,54%</t>
+          <t>7,04%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>6,73%</t>
+          <t>6,32%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>8,38%</t>
+          <t>7,82%</t>
         </is>
       </c>
     </row>
@@ -1531,17 +1531,17 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>463507</t>
+          <t>468215</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>463507</t>
+          <t>468215</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>463507</t>
+          <t>468215</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1566,17 +1566,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>439350</t>
+          <t>448923</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>439350</t>
+          <t>448923</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>439350</t>
+          <t>448923</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1601,17 +1601,17 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>902857</t>
+          <t>917137</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>902857</t>
+          <t>917137</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>902857</t>
+          <t>917137</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -1648,32 +1648,32 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>125017</t>
+          <t>147683</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>120460</t>
+          <t>142751</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>128962</t>
+          <t>153016</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>80,52%</t>
+          <t>80,01%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>77,59%</t>
+          <t>77,34%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>83,06%</t>
+          <t>82,9%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -1683,32 +1683,32 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>151369</t>
+          <t>181744</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>145990</t>
+          <t>175469</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>156663</t>
+          <t>187447</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>75,73%</t>
+          <t>75,27%</t>
         </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>73,04%</t>
+          <t>72,67%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>78,38%</t>
+          <t>77,63%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -1718,32 +1718,32 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>276386</t>
+          <t>329427</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>269430</t>
+          <t>320759</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>283079</t>
+          <t>336719</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
         <is>
-          <t>77,83%</t>
+          <t>77,32%</t>
         </is>
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>75,87%</t>
+          <t>75,29%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>79,71%</t>
+          <t>79,03%</t>
         </is>
       </c>
     </row>
@@ -1761,32 +1761,32 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>23996</t>
+          <t>28776</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>20539</t>
+          <t>24239</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>28499</t>
+          <t>33722</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>15,46%</t>
+          <t>15,59%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>13,23%</t>
+          <t>13,13%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>18,36%</t>
+          <t>18,27%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1796,32 +1796,32 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>38159</t>
+          <t>45733</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>33470</t>
+          <t>40370</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>43457</t>
+          <t>52012</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>19,09%</t>
+          <t>18,94%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>16,75%</t>
+          <t>16,72%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>21,74%</t>
+          <t>21,54%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -1831,32 +1831,32 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>62155</t>
+          <t>74509</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>56106</t>
+          <t>66932</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>68458</t>
+          <t>81232</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>17,5%</t>
+          <t>17,49%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>15,8%</t>
+          <t>15,71%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>19,28%</t>
+          <t>19,07%</t>
         </is>
       </c>
     </row>
@@ -1874,32 +1874,32 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>6242</t>
+          <t>8125</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>4255</t>
+          <t>5582</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>8548</t>
+          <t>11093</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>4,02%</t>
+          <t>4,4%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>2,74%</t>
+          <t>3,02%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>5,51%</t>
+          <t>6,01%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1909,32 +1909,32 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>10348</t>
+          <t>13977</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>8235</t>
+          <t>10868</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>13186</t>
+          <t>18002</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>5,18%</t>
+          <t>5,79%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>4,12%</t>
+          <t>4,5%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>6,6%</t>
+          <t>7,46%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -1944,32 +1944,32 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>16590</t>
+          <t>22102</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>13522</t>
+          <t>18177</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>20005</t>
+          <t>26849</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>4,67%</t>
+          <t>5,19%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>3,81%</t>
+          <t>4,27%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>5,63%</t>
+          <t>6,3%</t>
         </is>
       </c>
     </row>
@@ -1987,17 +1987,17 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>155255</t>
+          <t>184584</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>155255</t>
+          <t>184584</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>155255</t>
+          <t>184584</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2022,17 +2022,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>199876</t>
+          <t>241455</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>199876</t>
+          <t>241455</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>199876</t>
+          <t>241455</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2057,17 +2057,17 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>355131</t>
+          <t>426039</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>355131</t>
+          <t>426039</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>355131</t>
+          <t>426039</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2104,32 +2104,32 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>545271</t>
+          <t>566175</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>535172</t>
+          <t>555096</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>554672</t>
+          <t>576066</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>76,8%</t>
+          <t>76,98%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>75,38%</t>
+          <t>75,47%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>78,13%</t>
+          <t>78,32%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -2139,32 +2139,32 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>580515</t>
+          <t>610027</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>569987</t>
+          <t>599061</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>591527</t>
+          <t>621301</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>75,67%</t>
+          <t>75,47%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>74,3%</t>
+          <t>74,12%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>77,11%</t>
+          <t>76,87%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -2174,32 +2174,32 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>1125786</t>
+          <t>1176202</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>1110966</t>
+          <t>1161759</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>1139982</t>
+          <t>1191859</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>76,22%</t>
+          <t>76,19%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>75,21%</t>
+          <t>75,25%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>77,18%</t>
+          <t>77,2%</t>
         </is>
       </c>
     </row>
@@ -2217,32 +2217,32 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>118725</t>
+          <t>125873</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>109725</t>
+          <t>117266</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>127925</t>
+          <t>136237</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>16,72%</t>
+          <t>17,11%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>15,46%</t>
+          <t>15,94%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>18,02%</t>
+          <t>18,52%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -2252,32 +2252,32 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>133851</t>
+          <t>142811</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>124184</t>
+          <t>132894</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>143232</t>
+          <t>152070</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>17,45%</t>
+          <t>17,67%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>16,19%</t>
+          <t>16,44%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>18,67%</t>
+          <t>18,81%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -2287,32 +2287,32 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>252576</t>
+          <t>268684</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>240267</t>
+          <t>254212</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>265820</t>
+          <t>280895</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>17,1%</t>
+          <t>17,4%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>16,27%</t>
+          <t>16,47%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>18,0%</t>
+          <t>18,2%</t>
         </is>
       </c>
     </row>
@@ -2330,32 +2330,32 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>45963</t>
+          <t>43475</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>40553</t>
+          <t>37997</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>52408</t>
+          <t>49359</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>6,47%</t>
+          <t>5,91%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>5,71%</t>
+          <t>5,17%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>7,38%</t>
+          <t>6,71%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -2365,22 +2365,22 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>52773</t>
+          <t>55430</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>46787</t>
+          <t>49325</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>59248</t>
+          <t>62205</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>6,88%</t>
+          <t>6,86%</t>
         </is>
       </c>
       <c r="O18" s="2" t="inlineStr">
@@ -2390,7 +2390,7 @@
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>7,72%</t>
+          <t>7,7%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
@@ -2400,32 +2400,32 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>98736</t>
+          <t>98905</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>90180</t>
+          <t>90610</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>107586</t>
+          <t>107794</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
         <is>
-          <t>6,68%</t>
+          <t>6,41%</t>
         </is>
       </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>6,11%</t>
+          <t>5,87%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>7,28%</t>
+          <t>6,98%</t>
         </is>
       </c>
     </row>
@@ -2443,17 +2443,17 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>709959</t>
+          <t>735523</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>709959</t>
+          <t>735523</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>709959</t>
+          <t>735523</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -2478,17 +2478,17 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>767138</t>
+          <t>808268</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>767138</t>
+          <t>808268</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>767138</t>
+          <t>808268</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -2513,17 +2513,17 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>1477097</t>
+          <t>1543791</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>1477097</t>
+          <t>1543791</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>1477097</t>
+          <t>1543791</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -2804,12 +2804,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>143382</t>
+          <t>143033</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>168906</t>
+          <t>168581</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -2819,12 +2819,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>63,4%</t>
+          <t>63,24%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>74,68%</t>
+          <t>74,54%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -2839,12 +2839,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>266537</t>
+          <t>267106</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>294374</t>
+          <t>295343</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -2854,12 +2854,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>67,26%</t>
+          <t>67,41%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>74,29%</t>
+          <t>74,53%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -2874,12 +2874,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>416684</t>
+          <t>417406</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>455572</t>
+          <t>456697</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -2889,12 +2889,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>66,94%</t>
+          <t>67,06%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>73,19%</t>
+          <t>73,37%</t>
         </is>
       </c>
     </row>
@@ -2917,12 +2917,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>34873</t>
+          <t>36148</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>57525</t>
+          <t>57612</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -2932,12 +2932,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>15,42%</t>
+          <t>15,98%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>25,44%</t>
+          <t>25,47%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -2952,12 +2952,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>73320</t>
+          <t>73231</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>99048</t>
+          <t>99486</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -2967,12 +2967,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>18,5%</t>
+          <t>18,48%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>25,0%</t>
+          <t>25,11%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -2987,12 +2987,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>115505</t>
+          <t>113864</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>149397</t>
+          <t>149712</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -3002,12 +3002,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>18,56%</t>
+          <t>18,29%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>24,0%</t>
+          <t>24,05%</t>
         </is>
       </c>
     </row>
@@ -3030,12 +3030,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>17203</t>
+          <t>16822</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>34878</t>
+          <t>35185</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -3045,12 +3045,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>7,61%</t>
+          <t>7,44%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>15,42%</t>
+          <t>15,56%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -3065,12 +3065,12 @@
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>23042</t>
+          <t>22349</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>38556</t>
+          <t>38046</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -3080,12 +3080,12 @@
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>5,81%</t>
+          <t>5,64%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>9,73%</t>
+          <t>9,6%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -3100,12 +3100,12 @@
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>42865</t>
+          <t>43582</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>66213</t>
+          <t>67187</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -3115,12 +3115,12 @@
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>6,89%</t>
+          <t>7,0%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>10,64%</t>
+          <t>10,79%</t>
         </is>
       </c>
     </row>
@@ -3260,12 +3260,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1080408</t>
+          <t>1080777</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1281843</t>
+          <t>1269731</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -3275,12 +3275,12 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>76,98%</t>
+          <t>77,0%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>91,33%</t>
+          <t>90,46%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -3295,12 +3295,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>1054300</t>
+          <t>1056182</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>1213845</t>
+          <t>1224983</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -3310,12 +3310,12 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>76,25%</t>
+          <t>76,39%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>87,79%</t>
+          <t>88,59%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -3330,12 +3330,12 @@
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>2161609</t>
+          <t>2164081</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>2416495</t>
+          <t>2432400</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -3345,12 +3345,12 @@
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>77,58%</t>
+          <t>77,67%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>86,73%</t>
+          <t>87,3%</t>
         </is>
       </c>
     </row>
@@ -3373,12 +3373,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>88071</t>
+          <t>98667</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>239155</t>
+          <t>238407</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -3388,12 +3388,12 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>6,27%</t>
+          <t>7,03%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>17,04%</t>
+          <t>16,99%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -3408,12 +3408,12 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>123545</t>
+          <t>119565</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>251429</t>
+          <t>249034</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -3423,12 +3423,12 @@
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>8,94%</t>
+          <t>8,65%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>18,18%</t>
+          <t>18,01%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
@@ -3443,12 +3443,12 @@
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>278087</t>
+          <t>260793</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>471436</t>
+          <t>468956</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -3458,12 +3458,12 @@
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>9,98%</t>
+          <t>9,36%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>16,92%</t>
+          <t>16,83%</t>
         </is>
       </c>
     </row>
@@ -3486,12 +3486,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>36913</t>
+          <t>37250</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>95722</t>
+          <t>95902</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -3501,12 +3501,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>2,63%</t>
+          <t>2,65%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>6,82%</t>
+          <t>6,83%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -3521,12 +3521,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>39487</t>
+          <t>35909</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>85608</t>
+          <t>84574</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -3536,12 +3536,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>2,86%</t>
+          <t>2,6%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>6,19%</t>
+          <t>6,12%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -3556,12 +3556,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>91471</t>
+          <t>91261</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>167786</t>
+          <t>169852</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -3576,7 +3576,7 @@
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>6,02%</t>
+          <t>6,1%</t>
         </is>
       </c>
     </row>
@@ -3716,12 +3716,12 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>354777</t>
+          <t>355470</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>392336</t>
+          <t>389981</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -3731,12 +3731,12 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>77,28%</t>
+          <t>77,43%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>85,46%</t>
+          <t>84,95%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -3751,12 +3751,12 @@
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>333543</t>
+          <t>332623</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>364161</t>
+          <t>363610</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -3766,12 +3766,12 @@
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>75,62%</t>
+          <t>75,41%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>82,57%</t>
+          <t>82,44%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -3786,12 +3786,12 @@
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>697671</t>
+          <t>699762</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>746311</t>
+          <t>747083</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -3801,12 +3801,12 @@
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>77,51%</t>
+          <t>77,74%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>82,91%</t>
+          <t>82,99%</t>
         </is>
       </c>
     </row>
@@ -3829,12 +3829,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>52881</t>
+          <t>54375</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>86583</t>
+          <t>87275</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -3844,12 +3844,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>11,52%</t>
+          <t>11,84%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>18,86%</t>
+          <t>19,01%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -3864,12 +3864,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>63634</t>
+          <t>64655</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>94184</t>
+          <t>92982</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -3879,12 +3879,12 @@
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>14,43%</t>
+          <t>14,66%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>21,35%</t>
+          <t>21,08%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -3899,12 +3899,12 @@
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>125846</t>
+          <t>123785</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>170302</t>
+          <t>167034</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -3914,12 +3914,12 @@
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>13,98%</t>
+          <t>13,75%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>18,92%</t>
+          <t>18,56%</t>
         </is>
       </c>
     </row>
@@ -3942,12 +3942,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>7893</t>
+          <t>8165</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>27005</t>
+          <t>28766</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -3957,12 +3957,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>1,72%</t>
+          <t>1,78%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>5,88%</t>
+          <t>6,27%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -3977,12 +3977,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>9076</t>
+          <t>9126</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>22398</t>
+          <t>23149</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -3992,12 +3992,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>2,06%</t>
+          <t>2,07%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>5,08%</t>
+          <t>5,25%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -4012,12 +4012,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>20103</t>
+          <t>19874</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>43553</t>
+          <t>43234</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -4027,12 +4027,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>2,23%</t>
+          <t>2,21%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>4,84%</t>
+          <t>4,8%</t>
         </is>
       </c>
     </row>
@@ -4172,12 +4172,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1608159</t>
+          <t>1606027</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>1820457</t>
+          <t>1814889</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -4187,12 +4187,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>76,99%</t>
+          <t>76,89%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>87,15%</t>
+          <t>86,88%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -4207,12 +4207,12 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>1683438</t>
+          <t>1684532</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>1880768</t>
+          <t>1880671</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -4222,12 +4222,12 @@
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>75,83%</t>
+          <t>75,88%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>84,72%</t>
+          <t>84,71%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -4242,12 +4242,12 @@
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>3306934</t>
+          <t>3320648</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>3594711</t>
+          <t>3598229</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
@@ -4257,12 +4257,12 @@
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>76,75%</t>
+          <t>77,07%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>83,43%</t>
+          <t>83,51%</t>
         </is>
       </c>
     </row>
@@ -4285,12 +4285,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>196855</t>
+          <t>196975</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>357682</t>
+          <t>360860</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -4300,12 +4300,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>9,42%</t>
+          <t>9,43%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>17,12%</t>
+          <t>17,28%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -4320,12 +4320,12 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>268130</t>
+          <t>252027</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>418531</t>
+          <t>416176</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -4335,12 +4335,12 @@
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>12,08%</t>
+          <t>11,35%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>18,85%</t>
+          <t>18,75%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -4355,12 +4355,12 @@
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>535501</t>
+          <t>533065</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>758290</t>
+          <t>751473</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
@@ -4370,12 +4370,12 @@
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>12,43%</t>
+          <t>12,37%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>17,6%</t>
+          <t>17,44%</t>
         </is>
       </c>
     </row>
@@ -4398,12 +4398,12 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>73112</t>
+          <t>73556</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>141414</t>
+          <t>138947</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -4413,12 +4413,12 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>3,5%</t>
+          <t>3,52%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>6,77%</t>
+          <t>6,65%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -4433,12 +4433,12 @@
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>76344</t>
+          <t>76112</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>130020</t>
+          <t>130673</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -4448,12 +4448,12 @@
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>3,44%</t>
+          <t>3,43%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>5,86%</t>
+          <t>5,89%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
@@ -4468,12 +4468,12 @@
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>168590</t>
+          <t>171384</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>257014</t>
+          <t>256627</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -4483,7 +4483,7 @@
       </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>3,91%</t>
+          <t>3,98%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
@@ -6930,12 +6930,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>34983</t>
+          <t>35283</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>56420</t>
+          <t>56091</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -6945,12 +6945,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>36,94%</t>
+          <t>37,26%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>59,58%</t>
+          <t>59,23%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -6965,12 +6965,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>44895</t>
+          <t>44986</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>63063</t>
+          <t>63306</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -6980,12 +6980,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>40,37%</t>
+          <t>40,46%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>56,71%</t>
+          <t>56,93%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -7000,12 +7000,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>85029</t>
+          <t>84462</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>112250</t>
+          <t>113492</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -7015,12 +7015,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>41,3%</t>
+          <t>41,02%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>54,52%</t>
+          <t>55,12%</t>
         </is>
       </c>
     </row>
@@ -7043,12 +7043,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4568</t>
+          <t>4812</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>15030</t>
+          <t>15734</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -7058,12 +7058,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>4,82%</t>
+          <t>5,08%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>15,87%</t>
+          <t>16,62%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -7078,12 +7078,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>7932</t>
+          <t>8042</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>19338</t>
+          <t>20119</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -7093,12 +7093,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>7,13%</t>
+          <t>7,23%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>17,39%</t>
+          <t>18,09%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -7113,12 +7113,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>14982</t>
+          <t>14730</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>29447</t>
+          <t>30133</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -7128,12 +7128,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>7,28%</t>
+          <t>7,15%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>14,3%</t>
+          <t>14,64%</t>
         </is>
       </c>
     </row>
@@ -7156,12 +7156,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>30763</t>
+          <t>31182</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>51033</t>
+          <t>52203</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -7171,12 +7171,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>32,49%</t>
+          <t>32,93%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>53,89%</t>
+          <t>55,13%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -7191,12 +7191,12 @@
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>36194</t>
+          <t>36111</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>54401</t>
+          <t>54481</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -7206,12 +7206,12 @@
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>32,55%</t>
+          <t>32,48%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>48,92%</t>
+          <t>49,0%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -7226,12 +7226,12 @@
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>72569</t>
+          <t>71873</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>100659</t>
+          <t>100172</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -7241,12 +7241,12 @@
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>35,25%</t>
+          <t>34,91%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>48,89%</t>
+          <t>48,65%</t>
         </is>
       </c>
     </row>
@@ -7386,12 +7386,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>192396</t>
+          <t>192577</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>218134</t>
+          <t>218846</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -7401,12 +7401,12 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>54,59%</t>
+          <t>54,64%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>61,89%</t>
+          <t>62,09%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -7421,12 +7421,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>182842</t>
+          <t>182255</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>208077</t>
+          <t>208422</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -7436,12 +7436,12 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>53,03%</t>
+          <t>52,86%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>60,34%</t>
+          <t>60,44%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -7456,12 +7456,12 @@
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>382860</t>
+          <t>383568</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>418948</t>
+          <t>420279</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -7471,12 +7471,12 @@
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>54,91%</t>
+          <t>55,01%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>60,08%</t>
+          <t>60,28%</t>
         </is>
       </c>
     </row>
@@ -7499,12 +7499,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>38329</t>
+          <t>37516</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>55180</t>
+          <t>55143</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -7514,12 +7514,12 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>10,88%</t>
+          <t>10,64%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>15,66%</t>
+          <t>15,65%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -7534,12 +7534,12 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>34783</t>
+          <t>35291</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>52004</t>
+          <t>51942</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -7549,12 +7549,12 @@
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>10,09%</t>
+          <t>10,23%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>15,08%</t>
+          <t>15,06%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
@@ -7569,12 +7569,12 @@
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>77306</t>
+          <t>77256</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>101606</t>
+          <t>102740</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -7584,12 +7584,12 @@
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>11,09%</t>
+          <t>11,08%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>14,57%</t>
+          <t>14,73%</t>
         </is>
       </c>
     </row>
@@ -7612,12 +7612,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>88835</t>
+          <t>89879</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>112907</t>
+          <t>113748</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -7627,12 +7627,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>25,21%</t>
+          <t>25,5%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>32,03%</t>
+          <t>32,27%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -7647,12 +7647,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>94412</t>
+          <t>94345</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>118194</t>
+          <t>117404</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -7662,12 +7662,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>27,38%</t>
+          <t>27,36%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>34,28%</t>
+          <t>34,05%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -7682,12 +7682,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>191627</t>
+          <t>190508</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>224071</t>
+          <t>222934</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -7697,12 +7697,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>27,48%</t>
+          <t>27,32%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>32,14%</t>
+          <t>31,97%</t>
         </is>
       </c>
     </row>
@@ -7842,12 +7842,12 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>150106</t>
+          <t>149710</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>167837</t>
+          <t>167403</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -7857,12 +7857,12 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>67,59%</t>
+          <t>67,41%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>75,57%</t>
+          <t>75,37%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -7877,12 +7877,12 @@
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>174493</t>
+          <t>172955</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>196719</t>
+          <t>195442</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -7892,12 +7892,12 @@
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>63,58%</t>
+          <t>63,02%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>71,68%</t>
+          <t>71,22%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -7912,12 +7912,12 @@
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>331113</t>
+          <t>329407</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>359019</t>
+          <t>357430</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -7927,12 +7927,12 @@
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>66,69%</t>
+          <t>66,34%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>72,31%</t>
+          <t>71,99%</t>
         </is>
       </c>
     </row>
@@ -7955,12 +7955,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>13930</t>
+          <t>13737</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>24397</t>
+          <t>24431</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -7970,12 +7970,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>6,27%</t>
+          <t>6,19%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>10,98%</t>
+          <t>11,0%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -7990,12 +7990,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>29631</t>
+          <t>28678</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>44851</t>
+          <t>45018</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -8005,12 +8005,12 @@
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>10,8%</t>
+          <t>10,45%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>16,34%</t>
+          <t>16,4%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -8025,12 +8025,12 @@
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>45582</t>
+          <t>46505</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>63920</t>
+          <t>64884</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -8040,12 +8040,12 @@
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>9,18%</t>
+          <t>9,37%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>12,87%</t>
+          <t>13,07%</t>
         </is>
       </c>
     </row>
@@ -8068,12 +8068,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>36936</t>
+          <t>36991</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>52634</t>
+          <t>53045</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -8083,12 +8083,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>16,63%</t>
+          <t>16,66%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>23,7%</t>
+          <t>23,88%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -8103,12 +8103,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>44132</t>
+          <t>44577</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>61694</t>
+          <t>62319</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -8118,12 +8118,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>16,08%</t>
+          <t>16,24%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>22,48%</t>
+          <t>22,71%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -8138,12 +8138,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>85079</t>
+          <t>85957</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>109998</t>
+          <t>109116</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -8153,12 +8153,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>17,13%</t>
+          <t>17,31%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>22,15%</t>
+          <t>21,98%</t>
         </is>
       </c>
     </row>
@@ -8298,12 +8298,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>390602</t>
+          <t>390770</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>430328</t>
+          <t>428638</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -8313,12 +8313,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>58,37%</t>
+          <t>58,39%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>64,3%</t>
+          <t>64,05%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -8333,12 +8333,12 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>415491</t>
+          <t>413857</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>455673</t>
+          <t>454754</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -8348,12 +8348,12 @@
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>56,88%</t>
+          <t>56,66%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>62,38%</t>
+          <t>62,26%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -8368,12 +8368,12 @@
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>816895</t>
+          <t>816530</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>870280</t>
+          <t>872017</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
@@ -8383,12 +8383,12 @@
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>58,36%</t>
+          <t>58,34%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>62,18%</t>
+          <t>62,3%</t>
         </is>
       </c>
     </row>
@@ -8411,12 +8411,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>62321</t>
+          <t>62561</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>85323</t>
+          <t>85584</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -8426,12 +8426,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>9,31%</t>
+          <t>9,35%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>12,75%</t>
+          <t>12,79%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -8446,12 +8446,12 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>79764</t>
+          <t>79623</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>104515</t>
+          <t>105643</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -8461,12 +8461,12 @@
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>10,92%</t>
+          <t>10,9%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>14,31%</t>
+          <t>14,46%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -8481,12 +8481,12 @@
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>147834</t>
+          <t>149022</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>183730</t>
+          <t>182804</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
@@ -8496,12 +8496,12 @@
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>10,56%</t>
+          <t>10,65%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>13,13%</t>
+          <t>13,06%</t>
         </is>
       </c>
     </row>
@@ -8524,12 +8524,12 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>168447</t>
+          <t>170098</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>204495</t>
+          <t>205369</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -8539,12 +8539,12 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>25,17%</t>
+          <t>25,42%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>30,56%</t>
+          <t>30,69%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -8559,12 +8559,12 @@
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>185677</t>
+          <t>186756</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>222953</t>
+          <t>222207</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -8574,12 +8574,12 @@
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>25,42%</t>
+          <t>25,57%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>30,52%</t>
+          <t>30,42%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
@@ -8594,12 +8594,12 @@
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>363670</t>
+          <t>365237</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>416366</t>
+          <t>419465</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -8609,12 +8609,12 @@
       </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>25,98%</t>
+          <t>26,09%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>29,75%</t>
+          <t>29,97%</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/SENS_INSEGURIDAD-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/SENS_INSEGURIDAD-Estudios-trans_orig.xlsx
@@ -7,10 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Andalucia" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Andalucia" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Barcelona" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C.Valenciana" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Barcelona" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -546,7 +546,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Percepción de inseguridad en País Vasco (tasa de respuesta: 100,0%)</t>
+          <t>Percepción de inseguridad en Andalucia (tasa de respuesta: 99,45%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -731,107 +731,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>378</t>
+          <t>198</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>61360</t>
+          <t>170542</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>57911</t>
+          <t>155698</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>64513</t>
+          <t>183929</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>74,17%</t>
+          <t>67,45%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>70,01%</t>
+          <t>61,58%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>77,99%</t>
+          <t>72,75%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>560</t>
+          <t>494</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>87236</t>
+          <t>301977</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>82921</t>
+          <t>286483</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>90974</t>
+          <t>317485</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>74,0%</t>
+          <t>69,89%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>70,34%</t>
+          <t>66,3%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>77,17%</t>
+          <t>73,48%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>938</t>
+          <t>692</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>148595</t>
+          <t>472519</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>142788</t>
+          <t>450126</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>153934</t>
+          <t>493137</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>74,07%</t>
+          <t>68,99%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>71,18%</t>
+          <t>65,72%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>76,73%</t>
+          <t>72,0%</t>
         </is>
       </c>
     </row>
@@ -844,107 +844,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>60</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>16331</t>
+          <t>53897</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>13404</t>
+          <t>43130</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>19386</t>
+          <t>66559</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>19,74%</t>
+          <t>21,32%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>16,2%</t>
+          <t>17,06%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>23,43%</t>
+          <t>26,33%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>147</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>23448</t>
+          <t>95039</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>20370</t>
+          <t>81566</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>27440</t>
+          <t>110184</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>19,89%</t>
+          <t>22,0%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>17,28%</t>
+          <t>18,88%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>23,28%</t>
+          <t>25,5%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>207</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>39779</t>
+          <t>148936</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>34963</t>
+          <t>130465</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>44765</t>
+          <t>170510</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>19,83%</t>
+          <t>21,75%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>17,43%</t>
+          <t>19,05%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>22,31%</t>
+          <t>24,9%</t>
         </is>
       </c>
     </row>
@@ -957,107 +957,107 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>29</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>5034</t>
+          <t>28389</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>3494</t>
+          <t>19625</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>7006</t>
+          <t>40369</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>6,08%</t>
+          <t>11,23%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>4,22%</t>
+          <t>7,76%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>8,47%</t>
+          <t>15,97%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>53</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>7206</t>
+          <t>35065</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>5259</t>
+          <t>27073</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>9491</t>
+          <t>44764</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>6,11%</t>
+          <t>8,12%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>4,46%</t>
+          <t>6,27%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>8,05%</t>
+          <t>10,36%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>82</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>12240</t>
+          <t>63455</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>9643</t>
+          <t>50711</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>15437</t>
+          <t>77345</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
         <is>
-          <t>6,1%</t>
+          <t>9,26%</t>
         </is>
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>4,81%</t>
+          <t>7,4%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>7,69%</t>
+          <t>11,29%</t>
         </is>
       </c>
     </row>
@@ -1070,22 +1070,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>508</t>
+          <t>287</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>82724</t>
+          <t>252828</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>82724</t>
+          <t>252828</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>82724</t>
+          <t>252828</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -1105,22 +1105,22 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>758</t>
+          <t>694</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>117890</t>
+          <t>432081</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>117890</t>
+          <t>432081</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>117890</t>
+          <t>432081</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1140,22 +1140,22 @@
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>1266</t>
+          <t>981</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>200614</t>
+          <t>684910</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>200614</t>
+          <t>684910</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>200614</t>
+          <t>684910</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -1187,107 +1187,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2027</t>
+          <t>871</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>357133</t>
+          <t>996871</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>348694</t>
+          <t>960619</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>364954</t>
+          <t>1031039</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>76,28%</t>
+          <t>77,76%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>74,47%</t>
+          <t>74,93%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>77,95%</t>
+          <t>80,42%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>1921</t>
+          <t>1273</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>341047</t>
+          <t>965197</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>332499</t>
+          <t>932306</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>349592</t>
+          <t>995028</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>75,97%</t>
+          <t>76,19%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>74,07%</t>
+          <t>73,59%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>77,87%</t>
+          <t>78,54%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>3948</t>
+          <t>2144</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>698179</t>
+          <t>1962068</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>686663</t>
+          <t>1917912</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>710661</t>
+          <t>2008140</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>76,13%</t>
+          <t>76,98%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>74,87%</t>
+          <t>75,25%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>77,49%</t>
+          <t>78,79%</t>
         </is>
       </c>
     </row>
@@ -1300,107 +1300,107 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>454</t>
+          <t>177</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>80766</t>
+          <t>208924</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>73593</t>
+          <t>180337</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>88364</t>
+          <t>240875</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>17,25%</t>
+          <t>16,3%</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>15,72%</t>
+          <t>14,07%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>18,87%</t>
+          <t>18,79%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>407</t>
+          <t>276</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>73630</t>
+          <t>223744</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>66534</t>
+          <t>197146</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>80695</t>
+          <t>252007</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>16,4%</t>
+          <t>17,66%</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>14,82%</t>
+          <t>15,56%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>17,98%</t>
+          <t>19,89%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>861</t>
+          <t>453</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>154396</t>
+          <t>432668</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>143937</t>
+          <t>392414</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>163778</t>
+          <t>472791</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
         <is>
-          <t>16,83%</t>
+          <t>16,97%</t>
         </is>
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>15,69%</t>
+          <t>15,4%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>17,86%</t>
+          <t>18,55%</t>
         </is>
       </c>
     </row>
@@ -1413,107 +1413,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>58</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>30316</t>
+          <t>76223</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>26021</t>
+          <t>58384</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>35321</t>
+          <t>99280</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>6,47%</t>
+          <t>5,95%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>5,56%</t>
+          <t>4,55%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>7,54%</t>
+          <t>7,74%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>84</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>34246</t>
+          <t>77908</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>29197</t>
+          <t>62941</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>39692</t>
+          <t>99736</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>7,63%</t>
+          <t>6,15%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>6,5%</t>
+          <t>4,97%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>8,84%</t>
+          <t>7,87%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>364</t>
+          <t>142</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>64562</t>
+          <t>154131</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>57927</t>
+          <t>127655</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>71733</t>
+          <t>181223</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>7,04%</t>
+          <t>6,05%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>6,32%</t>
+          <t>5,01%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>7,82%</t>
+          <t>7,11%</t>
         </is>
       </c>
     </row>
@@ -1526,22 +1526,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2656</t>
+          <t>1106</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>468215</t>
+          <t>1282017</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>468215</t>
+          <t>1282017</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>468215</t>
+          <t>1282017</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1561,22 +1561,22 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2517</t>
+          <t>1633</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>448923</t>
+          <t>1266849</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>448923</t>
+          <t>1266849</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>448923</t>
+          <t>1266849</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1596,22 +1596,22 @@
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>5173</t>
+          <t>2739</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>917137</t>
+          <t>2548866</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>917137</t>
+          <t>2548866</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>917137</t>
+          <t>2548866</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -1643,107 +1643,107 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>736</t>
+          <t>400</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>147683</t>
+          <t>412957</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>142751</t>
+          <t>390065</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>153016</t>
+          <t>429182</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>80,01%</t>
+          <t>81,13%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>77,34%</t>
+          <t>76,63%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>82,9%</t>
+          <t>84,32%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>914</t>
+          <t>527</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>181744</t>
+          <t>387624</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>175469</t>
+          <t>370636</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>187447</t>
+          <t>403557</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>75,27%</t>
+          <t>78,73%</t>
         </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>72,67%</t>
+          <t>75,28%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>77,63%</t>
+          <t>81,96%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>1650</t>
+          <t>927</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>329427</t>
+          <t>800582</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>320759</t>
+          <t>774970</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>336719</t>
+          <t>824831</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
         <is>
-          <t>77,32%</t>
+          <t>79,95%</t>
         </is>
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>75,29%</t>
+          <t>77,39%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>79,03%</t>
+          <t>82,37%</t>
         </is>
       </c>
     </row>
@@ -1756,107 +1756,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>139</t>
+          <t>74</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>28776</t>
+          <t>78902</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>24239</t>
+          <t>63754</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>33722</t>
+          <t>99539</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>15,59%</t>
+          <t>15,5%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>13,13%</t>
+          <t>12,53%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>18,27%</t>
+          <t>19,56%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>112</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>45733</t>
+          <t>88627</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>40370</t>
+          <t>74072</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>52012</t>
+          <t>105099</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>18,94%</t>
+          <t>18,0%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>16,72%</t>
+          <t>15,04%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>21,54%</t>
+          <t>21,35%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>364</t>
+          <t>186</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>74509</t>
+          <t>167529</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>66932</t>
+          <t>143231</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>81232</t>
+          <t>189469</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>17,49%</t>
+          <t>16,73%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>15,71%</t>
+          <t>14,3%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>19,07%</t>
+          <t>18,92%</t>
         </is>
       </c>
     </row>
@@ -1869,107 +1869,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>8125</t>
+          <t>17153</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>5582</t>
+          <t>9226</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>11093</t>
+          <t>32013</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>4,4%</t>
+          <t>3,37%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>3,02%</t>
+          <t>1,81%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>6,01%</t>
+          <t>6,29%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>22</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>13977</t>
+          <t>16104</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>10868</t>
+          <t>10646</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>18002</t>
+          <t>25565</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>5,79%</t>
+          <t>3,27%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>4,5%</t>
+          <t>2,16%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>7,46%</t>
+          <t>5,19%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>108</t>
+          <t>34</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>22102</t>
+          <t>33257</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>18177</t>
+          <t>22593</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>26849</t>
+          <t>48175</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>5,19%</t>
+          <t>3,32%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>4,27%</t>
+          <t>2,26%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>6,3%</t>
+          <t>4,81%</t>
         </is>
       </c>
     </row>
@@ -1982,22 +1982,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>913</t>
+          <t>486</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>184584</t>
+          <t>509012</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>184584</t>
+          <t>509012</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>184584</t>
+          <t>509012</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2017,22 +2017,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>1209</t>
+          <t>661</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>241455</t>
+          <t>492355</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>241455</t>
+          <t>492355</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>241455</t>
+          <t>492355</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2052,22 +2052,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>2122</t>
+          <t>1147</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>426039</t>
+          <t>1001367</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>426039</t>
+          <t>1001367</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>426039</t>
+          <t>1001367</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2099,107 +2099,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>3141</t>
+          <t>1469</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>566175</t>
+          <t>1580370</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>555096</t>
+          <t>1540210</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>576066</t>
+          <t>1624362</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>76,98%</t>
+          <t>77,32%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>75,47%</t>
+          <t>75,36%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>78,32%</t>
+          <t>79,48%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>3395</t>
+          <t>2294</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>610027</t>
+          <t>1654798</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>599061</t>
+          <t>1619365</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>621301</t>
+          <t>1692375</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>75,47%</t>
+          <t>75,52%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>74,12%</t>
+          <t>73,9%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>76,87%</t>
+          <t>77,23%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>6536</t>
+          <t>3763</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>1176202</t>
+          <t>3235168</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>1161759</t>
+          <t>3172844</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>1191859</t>
+          <t>3289682</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>76,19%</t>
+          <t>76,39%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>75,25%</t>
+          <t>74,92%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>77,2%</t>
+          <t>77,68%</t>
         </is>
       </c>
     </row>
@@ -2212,107 +2212,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>692</t>
+          <t>311</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>125873</t>
+          <t>341722</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>117266</t>
+          <t>304937</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>136237</t>
+          <t>379342</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>17,11%</t>
+          <t>16,72%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>15,94%</t>
+          <t>14,92%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>18,52%</t>
+          <t>18,56%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>783</t>
+          <t>535</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>142811</t>
+          <t>407409</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>132894</t>
+          <t>372477</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>152070</t>
+          <t>439548</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>17,67%</t>
+          <t>18,59%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>16,44%</t>
+          <t>17,0%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>18,81%</t>
+          <t>20,06%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>1475</t>
+          <t>846</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>268684</t>
+          <t>749132</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>254212</t>
+          <t>698969</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>280895</t>
+          <t>802070</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>17,4%</t>
+          <t>17,69%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>16,47%</t>
+          <t>16,5%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>18,2%</t>
+          <t>18,94%</t>
         </is>
       </c>
     </row>
@@ -2325,107 +2325,107 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>99</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>43475</t>
+          <t>121765</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>37997</t>
+          <t>98466</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>49359</t>
+          <t>151072</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>5,91%</t>
+          <t>5,96%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>5,17%</t>
+          <t>4,82%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>6,71%</t>
+          <t>7,39%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>306</t>
+          <t>159</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>55430</t>
+          <t>129078</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>49325</t>
+          <t>110245</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>62205</t>
+          <t>151706</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>6,86%</t>
+          <t>5,89%</t>
         </is>
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>6,1%</t>
+          <t>5,03%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>7,7%</t>
+          <t>6,92%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>550</t>
+          <t>258</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>98905</t>
+          <t>250843</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>90610</t>
+          <t>218094</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>107794</t>
+          <t>285200</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
         <is>
-          <t>6,41%</t>
+          <t>5,92%</t>
         </is>
       </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>5,87%</t>
+          <t>5,15%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>6,98%</t>
+          <t>6,73%</t>
         </is>
       </c>
     </row>
@@ -2438,22 +2438,22 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>4077</t>
+          <t>1879</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>735523</t>
+          <t>2043857</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>735523</t>
+          <t>2043857</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>735523</t>
+          <t>2043857</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -2473,22 +2473,22 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>4484</t>
+          <t>2988</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>808268</t>
+          <t>2191286</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>808268</t>
+          <t>2191286</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>808268</t>
+          <t>2191286</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -2508,22 +2508,22 @@
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>8561</t>
+          <t>4867</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>1543791</t>
+          <t>4235142</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>1543791</t>
+          <t>4235142</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>1543791</t>
+          <t>4235142</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -2609,7 +2609,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Percepción de inseguridad en Andalucia (tasa de respuesta: 99,45%)</t>
+          <t>Percepción de inseguridad en Barcelona (tasa de respuesta: 97,55%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -2794,107 +2794,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>98</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>155806</t>
+          <t>45057</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>143033</t>
+          <t>35283</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>168581</t>
+          <t>56091</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>68,89%</t>
+          <t>47,58%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>63,24%</t>
+          <t>37,26%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>74,54%</t>
+          <t>59,23%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>494</t>
+          <t>150</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>281066</t>
+          <t>53603</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>267106</t>
+          <t>44986</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>295343</t>
+          <t>63306</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>70,93%</t>
+          <t>48,21%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>67,41%</t>
+          <t>40,46%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>74,53%</t>
+          <t>56,93%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>692</t>
+          <t>248</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>436870</t>
+          <t>98660</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>417406</t>
+          <t>84462</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>456697</t>
+          <t>113492</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>70,19%</t>
+          <t>47,92%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>67,06%</t>
+          <t>41,02%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>73,37%</t>
+          <t>55,12%</t>
         </is>
       </c>
     </row>
@@ -2907,107 +2907,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>19</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>45777</t>
+          <t>8478</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>36148</t>
+          <t>4812</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>57612</t>
+          <t>15734</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>20,24%</t>
+          <t>8,95%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>15,98%</t>
+          <t>5,08%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>25,47%</t>
+          <t>16,62%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>33</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>85373</t>
+          <t>12647</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>73231</t>
+          <t>8042</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>99486</t>
+          <t>20119</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>21,54%</t>
+          <t>11,37%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>18,48%</t>
+          <t>7,23%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>25,11%</t>
+          <t>18,09%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>52</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>131150</t>
+          <t>21125</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>113864</t>
+          <t>14730</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>149712</t>
+          <t>30133</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>21,07%</t>
+          <t>10,26%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>18,29%</t>
+          <t>7,15%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>24,05%</t>
+          <t>14,64%</t>
         </is>
       </c>
     </row>
@@ -3020,107 +3020,107 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>70</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>24582</t>
+          <t>41157</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>16822</t>
+          <t>31182</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>35185</t>
+          <t>52203</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>10,87%</t>
+          <t>43,46%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>7,44%</t>
+          <t>32,93%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>15,56%</t>
+          <t>55,13%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>100</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>29826</t>
+          <t>44944</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>22349</t>
+          <t>36111</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>38046</t>
+          <t>54481</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>7,53%</t>
+          <t>40,42%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>5,64%</t>
+          <t>32,48%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>9,6%</t>
+          <t>49,0%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>170</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>54408</t>
+          <t>86101</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>43582</t>
+          <t>71873</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>67187</t>
+          <t>100172</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
         <is>
-          <t>8,74%</t>
+          <t>41,82%</t>
         </is>
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>7,0%</t>
+          <t>34,91%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>10,79%</t>
+          <t>48,65%</t>
         </is>
       </c>
     </row>
@@ -3133,22 +3133,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>187</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>226164</t>
+          <t>94692</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>226164</t>
+          <t>94692</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>226164</t>
+          <t>94692</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -3168,22 +3168,22 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>694</t>
+          <t>283</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>396265</t>
+          <t>111195</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>396265</t>
+          <t>111195</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>396265</t>
+          <t>111195</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -3203,22 +3203,22 @@
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>981</t>
+          <t>470</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>622428</t>
+          <t>205886</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>622428</t>
+          <t>205886</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>622428</t>
+          <t>205886</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -3250,107 +3250,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>871</t>
+          <t>447</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1147034</t>
+          <t>205317</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1080777</t>
+          <t>192577</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1269731</t>
+          <t>218846</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>81,72%</t>
+          <t>58,25%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>77,0%</t>
+          <t>54,64%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>90,46%</t>
+          <t>62,09%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>1273</t>
+          <t>442</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>1121963</t>
+          <t>195919</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>1056182</t>
+          <t>182255</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>1224983</t>
+          <t>208422</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>81,14%</t>
+          <t>56,82%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>76,39%</t>
+          <t>52,86%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>88,59%</t>
+          <t>60,44%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>2144</t>
+          <t>889</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>2268996</t>
+          <t>401236</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>2164081</t>
+          <t>383568</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>2432400</t>
+          <t>420279</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>81,43%</t>
+          <t>57,54%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>77,67%</t>
+          <t>55,01%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>87,3%</t>
+          <t>60,28%</t>
         </is>
       </c>
     </row>
@@ -3363,107 +3363,107 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>106</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>187866</t>
+          <t>46186</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>98667</t>
+          <t>37516</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>238407</t>
+          <t>55143</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>13,38%</t>
+          <t>13,1%</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>7,03%</t>
+          <t>10,64%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>16,99%</t>
+          <t>15,65%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>92</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>198394</t>
+          <t>42867</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>119565</t>
+          <t>35291</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>249034</t>
+          <t>51942</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>14,35%</t>
+          <t>12,43%</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>8,65%</t>
+          <t>10,23%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>18,01%</t>
+          <t>15,06%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>453</t>
+          <t>198</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>386259</t>
+          <t>89053</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>260793</t>
+          <t>77256</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>468956</t>
+          <t>102740</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
         <is>
-          <t>13,86%</t>
+          <t>12,77%</t>
         </is>
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>9,36%</t>
+          <t>11,08%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>16,83%</t>
+          <t>14,73%</t>
         </is>
       </c>
     </row>
@@ -3476,107 +3476,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>229</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>68680</t>
+          <t>100946</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>37250</t>
+          <t>89879</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>95902</t>
+          <t>113748</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>4,89%</t>
+          <t>28,64%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>2,65%</t>
+          <t>25,5%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>6,83%</t>
+          <t>32,27%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>253</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>62347</t>
+          <t>106029</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>35909</t>
+          <t>94345</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>84574</t>
+          <t>117404</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>4,51%</t>
+          <t>30,75%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>2,6%</t>
+          <t>27,36%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>6,12%</t>
+          <t>34,05%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>482</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>131027</t>
+          <t>206975</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>91261</t>
+          <t>190508</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>169852</t>
+          <t>222934</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>4,7%</t>
+          <t>29,68%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>3,28%</t>
+          <t>27,32%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>6,1%</t>
+          <t>31,97%</t>
         </is>
       </c>
     </row>
@@ -3589,22 +3589,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1106</t>
+          <t>782</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1403580</t>
+          <t>352449</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1403580</t>
+          <t>352449</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1403580</t>
+          <t>352449</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -3624,22 +3624,22 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1633</t>
+          <t>787</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1382703</t>
+          <t>344816</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>1382703</t>
+          <t>344816</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>1382703</t>
+          <t>344816</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -3659,22 +3659,22 @@
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>2739</t>
+          <t>1569</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>2786283</t>
+          <t>697265</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>2786283</t>
+          <t>697265</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>2786283</t>
+          <t>697265</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -3706,107 +3706,107 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>443</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>375270</t>
+          <t>159377</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>355470</t>
+          <t>149710</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>389981</t>
+          <t>167403</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>81,74%</t>
+          <t>71,76%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>77,43%</t>
+          <t>67,41%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>84,95%</t>
+          <t>75,37%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>527</t>
+          <t>493</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>349225</t>
+          <t>185161</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>332623</t>
+          <t>172955</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>363610</t>
+          <t>195442</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>79,18%</t>
+          <t>67,47%</t>
         </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>75,41%</t>
+          <t>63,02%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>82,44%</t>
+          <t>71,22%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>927</t>
+          <t>936</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>724495</t>
+          <t>344538</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>699762</t>
+          <t>329407</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>747083</t>
+          <t>357430</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
         <is>
-          <t>80,49%</t>
+          <t>69,39%</t>
         </is>
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>77,74%</t>
+          <t>66,34%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>82,99%</t>
+          <t>71,99%</t>
         </is>
       </c>
     </row>
@@ -3819,107 +3819,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>59</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>68501</t>
+          <t>18537</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>54375</t>
+          <t>13737</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>87275</t>
+          <t>24431</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>14,92%</t>
+          <t>8,35%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>11,84%</t>
+          <t>6,19%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>19,01%</t>
+          <t>11,0%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>95</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>77642</t>
+          <t>36307</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>64655</t>
+          <t>28678</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>92982</t>
+          <t>45018</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>17,6%</t>
+          <t>13,23%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>14,66%</t>
+          <t>10,45%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>21,08%</t>
+          <t>16,4%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>154</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>146143</t>
+          <t>54845</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>123785</t>
+          <t>46505</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>167034</t>
+          <t>64884</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>16,24%</t>
+          <t>11,05%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>13,75%</t>
+          <t>9,37%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>18,56%</t>
+          <t>13,07%</t>
         </is>
       </c>
     </row>
@@ -3932,107 +3932,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>134</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>15327</t>
+          <t>44184</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>8165</t>
+          <t>36991</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>28766</t>
+          <t>53045</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>3,34%</t>
+          <t>19,89%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>1,78%</t>
+          <t>16,66%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>6,27%</t>
+          <t>23,88%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>153</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>14190</t>
+          <t>52967</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>9126</t>
+          <t>44577</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>23149</t>
+          <t>62319</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>3,22%</t>
+          <t>19,3%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>2,07%</t>
+          <t>16,24%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>5,25%</t>
+          <t>22,71%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>287</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>29518</t>
+          <t>97151</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>19874</t>
+          <t>85957</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>43234</t>
+          <t>109116</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>3,28%</t>
+          <t>19,57%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>2,21%</t>
+          <t>17,31%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>4,8%</t>
+          <t>21,98%</t>
         </is>
       </c>
     </row>
@@ -4045,22 +4045,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>486</t>
+          <t>636</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>459098</t>
+          <t>222098</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>459098</t>
+          <t>222098</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>459098</t>
+          <t>222098</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -4080,22 +4080,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>661</t>
+          <t>741</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>441057</t>
+          <t>274435</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>441057</t>
+          <t>274435</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>441057</t>
+          <t>274435</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -4115,22 +4115,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>1147</t>
+          <t>1377</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>900155</t>
+          <t>496533</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>900155</t>
+          <t>496533</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>900155</t>
+          <t>496533</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -4162,107 +4162,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1469</t>
+          <t>988</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1678109</t>
+          <t>409751</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1606027</t>
+          <t>390770</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>1814889</t>
+          <t>428638</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>80,34%</t>
+          <t>61,23%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>76,89%</t>
+          <t>58,39%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>86,88%</t>
+          <t>64,05%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>2294</t>
+          <t>1085</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>1752253</t>
+          <t>434683</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>1684532</t>
+          <t>413857</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>1880671</t>
+          <t>454754</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>78,93%</t>
+          <t>59,51%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>75,88%</t>
+          <t>56,66%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>84,71%</t>
+          <t>62,26%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>3763</t>
+          <t>2073</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>3430362</t>
+          <t>844434</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>3320648</t>
+          <t>816530</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>3598229</t>
+          <t>872017</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>79,61%</t>
+          <t>60,33%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>77,07%</t>
+          <t>58,34%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>83,51%</t>
+          <t>62,3%</t>
         </is>
       </c>
     </row>
@@ -4275,107 +4275,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>311</t>
+          <t>184</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>302143</t>
+          <t>73202</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>196975</t>
+          <t>62561</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>360860</t>
+          <t>85584</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
+          <t>10,94%</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>9,35%</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>12,79%</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>220</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>91822</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>79623</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>105643</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>12,57%</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>10,9%</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
           <t>14,46%</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>9,43%</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>17,28%</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>535</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
-        <is>
-          <t>361409</t>
-        </is>
-      </c>
-      <c r="L17" s="2" t="inlineStr">
-        <is>
-          <t>252027</t>
-        </is>
-      </c>
-      <c r="M17" s="2" t="inlineStr">
-        <is>
-          <t>416176</t>
-        </is>
-      </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>16,28%</t>
-        </is>
-      </c>
-      <c r="O17" s="2" t="inlineStr">
-        <is>
-          <t>11,35%</t>
-        </is>
-      </c>
-      <c r="P17" s="2" t="inlineStr">
-        <is>
-          <t>18,75%</t>
-        </is>
-      </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>846</t>
+          <t>404</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>663552</t>
+          <t>165023</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>533065</t>
+          <t>149022</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>751473</t>
+          <t>182804</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>15,4%</t>
+          <t>11,79%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>12,37%</t>
+          <t>10,65%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>17,44%</t>
+          <t>13,06%</t>
         </is>
       </c>
     </row>
@@ -4388,107 +4388,107 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>433</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>108589</t>
+          <t>186286</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>73556</t>
+          <t>170098</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>138947</t>
+          <t>205369</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>5,2%</t>
+          <t>27,84%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>3,52%</t>
+          <t>25,42%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>6,65%</t>
+          <t>30,69%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>506</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>106363</t>
+          <t>203940</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>76112</t>
+          <t>186756</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>130673</t>
+          <t>222207</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>4,79%</t>
+          <t>27,92%</t>
         </is>
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>3,43%</t>
+          <t>25,57%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>5,89%</t>
+          <t>30,42%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>939</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>214953</t>
+          <t>390227</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>171384</t>
+          <t>365237</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>256627</t>
+          <t>419465</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
         <is>
-          <t>4,99%</t>
+          <t>27,88%</t>
         </is>
       </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>3,98%</t>
+          <t>26,09%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>5,96%</t>
+          <t>29,97%</t>
         </is>
       </c>
     </row>
@@ -4501,22 +4501,22 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>1879</t>
+          <t>1605</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>2088842</t>
+          <t>669239</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>2088842</t>
+          <t>669239</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>2088842</t>
+          <t>669239</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -4536,22 +4536,22 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>2988</t>
+          <t>1811</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>2220025</t>
+          <t>730445</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>2220025</t>
+          <t>730445</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>2220025</t>
+          <t>730445</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -4571,22 +4571,22 @@
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>4867</t>
+          <t>3416</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>4308867</t>
+          <t>1399684</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>4308867</t>
+          <t>1399684</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>4308867</t>
+          <t>1399684</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -6735,7 +6735,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Percepción de inseguridad en Barcelona (tasa de respuesta: 97,55%)</t>
+          <t>Percepción de inseguridad en País Vasco (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -6920,107 +6920,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>378</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>45057</t>
+          <t>61360</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>35283</t>
+          <t>57911</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>56091</t>
+          <t>64513</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>47,58%</t>
+          <t>74,17%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>37,26%</t>
+          <t>70,01%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>59,23%</t>
+          <t>77,99%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>560</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>53603</t>
+          <t>87236</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>44986</t>
+          <t>82921</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>63306</t>
+          <t>90974</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>48,21%</t>
+          <t>74,0%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>40,46%</t>
+          <t>70,34%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>56,93%</t>
+          <t>77,17%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>938</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>98660</t>
+          <t>148595</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>84462</t>
+          <t>142788</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>113492</t>
+          <t>153934</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>47,92%</t>
+          <t>74,07%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>41,02%</t>
+          <t>71,18%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>55,12%</t>
+          <t>76,73%</t>
         </is>
       </c>
     </row>
@@ -7033,107 +7033,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>99</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>8478</t>
+          <t>16331</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4812</t>
+          <t>13404</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>15734</t>
+          <t>19386</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>8,95%</t>
+          <t>19,74%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>5,08%</t>
+          <t>16,2%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>16,62%</t>
+          <t>23,43%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>151</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>12647</t>
+          <t>23448</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>8042</t>
+          <t>20370</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>20119</t>
+          <t>27440</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>11,37%</t>
+          <t>19,89%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>7,23%</t>
+          <t>17,28%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>18,09%</t>
+          <t>23,28%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>250</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>21125</t>
+          <t>39779</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>14730</t>
+          <t>34963</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>30133</t>
+          <t>44765</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>10,26%</t>
+          <t>19,83%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>7,15%</t>
+          <t>17,43%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>14,64%</t>
+          <t>22,31%</t>
         </is>
       </c>
     </row>
@@ -7146,107 +7146,107 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>31</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>41157</t>
+          <t>5034</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>31182</t>
+          <t>3494</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>52203</t>
+          <t>7006</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>43,46%</t>
+          <t>6,08%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>32,93%</t>
+          <t>4,22%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>55,13%</t>
+          <t>8,47%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>47</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>44944</t>
+          <t>7206</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>36111</t>
+          <t>5259</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>54481</t>
+          <t>9491</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>40,42%</t>
+          <t>6,11%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>32,48%</t>
+          <t>4,46%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>49,0%</t>
+          <t>8,05%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>78</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>86101</t>
+          <t>12240</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>71873</t>
+          <t>9643</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>100172</t>
+          <t>15437</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
         <is>
-          <t>41,82%</t>
+          <t>6,1%</t>
         </is>
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>34,91%</t>
+          <t>4,81%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>48,65%</t>
+          <t>7,69%</t>
         </is>
       </c>
     </row>
@@ -7259,22 +7259,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>508</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>94692</t>
+          <t>82724</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>94692</t>
+          <t>82724</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>94692</t>
+          <t>82724</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -7294,22 +7294,22 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>758</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>111195</t>
+          <t>117890</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>111195</t>
+          <t>117890</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>111195</t>
+          <t>117890</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -7329,22 +7329,22 @@
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>470</t>
+          <t>1266</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>205886</t>
+          <t>200614</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>205886</t>
+          <t>200614</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>205886</t>
+          <t>200614</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -7376,107 +7376,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>447</t>
+          <t>2027</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>205317</t>
+          <t>357133</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>192577</t>
+          <t>348694</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>218846</t>
+          <t>364954</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>58,25%</t>
+          <t>76,28%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>54,64%</t>
+          <t>74,47%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>62,09%</t>
+          <t>77,95%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>442</t>
+          <t>1921</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>195919</t>
+          <t>341047</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>182255</t>
+          <t>332499</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>208422</t>
+          <t>349592</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>56,82%</t>
+          <t>75,97%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>52,86%</t>
+          <t>74,07%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>60,44%</t>
+          <t>77,87%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>889</t>
+          <t>3948</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>401236</t>
+          <t>698179</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>383568</t>
+          <t>686663</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>420279</t>
+          <t>710661</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>57,54%</t>
+          <t>76,13%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>55,01%</t>
+          <t>74,87%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>60,28%</t>
+          <t>77,49%</t>
         </is>
       </c>
     </row>
@@ -7489,107 +7489,107 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>454</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>46186</t>
+          <t>80766</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>37516</t>
+          <t>73593</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>55143</t>
+          <t>88364</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>13,1%</t>
+          <t>17,25%</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>10,64%</t>
+          <t>15,72%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>15,65%</t>
+          <t>18,87%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>407</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>42867</t>
+          <t>73630</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>35291</t>
+          <t>66534</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>51942</t>
+          <t>80695</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>12,43%</t>
+          <t>16,4%</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>10,23%</t>
+          <t>14,82%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>15,06%</t>
+          <t>17,98%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>861</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>89053</t>
+          <t>154396</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>77256</t>
+          <t>143937</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>102740</t>
+          <t>163778</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
         <is>
-          <t>12,77%</t>
+          <t>16,83%</t>
         </is>
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>11,08%</t>
+          <t>15,69%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>14,73%</t>
+          <t>17,86%</t>
         </is>
       </c>
     </row>
@@ -7602,107 +7602,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>175</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>100946</t>
+          <t>30316</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>89879</t>
+          <t>26021</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>113748</t>
+          <t>35321</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>28,64%</t>
+          <t>6,47%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>25,5%</t>
+          <t>5,56%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>32,27%</t>
+          <t>7,54%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>253</t>
+          <t>189</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>106029</t>
+          <t>34246</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>94345</t>
+          <t>29197</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>117404</t>
+          <t>39692</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>30,75%</t>
+          <t>7,63%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>27,36%</t>
+          <t>6,5%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>34,05%</t>
+          <t>8,84%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>482</t>
+          <t>364</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>206975</t>
+          <t>64562</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>190508</t>
+          <t>57927</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>222934</t>
+          <t>71733</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>29,68%</t>
+          <t>7,04%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>27,32%</t>
+          <t>6,32%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>31,97%</t>
+          <t>7,82%</t>
         </is>
       </c>
     </row>
@@ -7715,22 +7715,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>782</t>
+          <t>2656</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>352449</t>
+          <t>468215</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>352449</t>
+          <t>468215</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>352449</t>
+          <t>468215</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -7750,22 +7750,22 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>787</t>
+          <t>2517</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>344816</t>
+          <t>448923</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>344816</t>
+          <t>448923</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>344816</t>
+          <t>448923</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -7785,22 +7785,22 @@
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>1569</t>
+          <t>5173</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>697265</t>
+          <t>917137</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>697265</t>
+          <t>917137</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>697265</t>
+          <t>917137</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -7832,107 +7832,107 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>443</t>
+          <t>736</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>159377</t>
+          <t>147683</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>149710</t>
+          <t>142751</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>167403</t>
+          <t>153016</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>71,76%</t>
+          <t>80,01%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>67,41%</t>
+          <t>77,34%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>75,37%</t>
+          <t>82,9%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>493</t>
+          <t>914</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>185161</t>
+          <t>181744</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>172955</t>
+          <t>175469</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>195442</t>
+          <t>187447</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>67,47%</t>
+          <t>75,27%</t>
         </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>63,02%</t>
+          <t>72,67%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>71,22%</t>
+          <t>77,63%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>936</t>
+          <t>1650</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>344538</t>
+          <t>329427</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>329407</t>
+          <t>320759</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>357430</t>
+          <t>336719</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
         <is>
-          <t>69,39%</t>
+          <t>77,32%</t>
         </is>
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>66,34%</t>
+          <t>75,29%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>71,99%</t>
+          <t>79,03%</t>
         </is>
       </c>
     </row>
@@ -7945,107 +7945,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>139</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>18537</t>
+          <t>28776</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>13737</t>
+          <t>24239</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>24431</t>
+          <t>33722</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>8,35%</t>
+          <t>15,59%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>6,19%</t>
+          <t>13,13%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>11,0%</t>
+          <t>18,27%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>225</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>36307</t>
+          <t>45733</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>28678</t>
+          <t>40370</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>45018</t>
+          <t>52012</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>13,23%</t>
+          <t>18,94%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>10,45%</t>
+          <t>16,72%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>16,4%</t>
+          <t>21,54%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>364</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>54845</t>
+          <t>74509</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>46505</t>
+          <t>66932</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>64884</t>
+          <t>81232</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>11,05%</t>
+          <t>17,49%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>9,37%</t>
+          <t>15,71%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>13,07%</t>
+          <t>19,07%</t>
         </is>
       </c>
     </row>
@@ -8058,107 +8058,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>38</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>44184</t>
+          <t>8125</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>36991</t>
+          <t>5582</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>53045</t>
+          <t>11093</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>19,89%</t>
+          <t>4,4%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>16,66%</t>
+          <t>3,02%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>23,88%</t>
+          <t>6,01%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>70</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>52967</t>
+          <t>13977</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>44577</t>
+          <t>10868</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>62319</t>
+          <t>18002</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>19,3%</t>
+          <t>5,79%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>16,24%</t>
+          <t>4,5%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>22,71%</t>
+          <t>7,46%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>108</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>97151</t>
+          <t>22102</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>85957</t>
+          <t>18177</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>109116</t>
+          <t>26849</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>19,57%</t>
+          <t>5,19%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>17,31%</t>
+          <t>4,27%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>21,98%</t>
+          <t>6,3%</t>
         </is>
       </c>
     </row>
@@ -8171,22 +8171,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>636</t>
+          <t>913</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>222098</t>
+          <t>184584</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>222098</t>
+          <t>184584</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>222098</t>
+          <t>184584</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -8206,22 +8206,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>741</t>
+          <t>1209</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>274435</t>
+          <t>241455</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>274435</t>
+          <t>241455</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>274435</t>
+          <t>241455</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -8241,22 +8241,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>1377</t>
+          <t>2122</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>496533</t>
+          <t>426039</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>496533</t>
+          <t>426039</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>496533</t>
+          <t>426039</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -8288,107 +8288,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>988</t>
+          <t>3141</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>409751</t>
+          <t>566175</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>390770</t>
+          <t>555096</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>428638</t>
+          <t>576066</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>61,23%</t>
+          <t>76,98%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>58,39%</t>
+          <t>75,47%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>64,05%</t>
+          <t>78,32%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>1085</t>
+          <t>3395</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>434683</t>
+          <t>610027</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>413857</t>
+          <t>599061</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>454754</t>
+          <t>621301</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>59,51%</t>
+          <t>75,47%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>56,66%</t>
+          <t>74,12%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>62,26%</t>
+          <t>76,87%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>2073</t>
+          <t>6536</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>844434</t>
+          <t>1176202</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>816530</t>
+          <t>1161759</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>872017</t>
+          <t>1191859</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>60,33%</t>
+          <t>76,19%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>58,34%</t>
+          <t>75,25%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>62,3%</t>
+          <t>77,2%</t>
         </is>
       </c>
     </row>
@@ -8401,107 +8401,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>692</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>73202</t>
+          <t>125873</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>62561</t>
+          <t>117266</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>85584</t>
+          <t>136237</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>10,94%</t>
+          <t>17,11%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>9,35%</t>
+          <t>15,94%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>12,79%</t>
+          <t>18,52%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>783</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>91822</t>
+          <t>142811</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>79623</t>
+          <t>132894</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>105643</t>
+          <t>152070</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>12,57%</t>
+          <t>17,67%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>10,9%</t>
+          <t>16,44%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>14,46%</t>
+          <t>18,81%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>404</t>
+          <t>1475</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>165023</t>
+          <t>268684</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>149022</t>
+          <t>254212</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>182804</t>
+          <t>280895</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>11,79%</t>
+          <t>17,4%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>10,65%</t>
+          <t>16,47%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>13,06%</t>
+          <t>18,2%</t>
         </is>
       </c>
     </row>
@@ -8514,107 +8514,107 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>433</t>
+          <t>244</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>186286</t>
+          <t>43475</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>170098</t>
+          <t>37997</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>205369</t>
+          <t>49359</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>27,84%</t>
+          <t>5,91%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>25,42%</t>
+          <t>5,17%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>30,69%</t>
+          <t>6,71%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>506</t>
+          <t>306</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>203940</t>
+          <t>55430</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>186756</t>
+          <t>49325</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>222207</t>
+          <t>62205</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>27,92%</t>
+          <t>6,86%</t>
         </is>
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>25,57%</t>
+          <t>6,1%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>30,42%</t>
+          <t>7,7%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>939</t>
+          <t>550</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>390227</t>
+          <t>98905</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>365237</t>
+          <t>90610</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>419465</t>
+          <t>107794</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
         <is>
-          <t>27,88%</t>
+          <t>6,41%</t>
         </is>
       </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>26,09%</t>
+          <t>5,87%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>29,97%</t>
+          <t>6,98%</t>
         </is>
       </c>
     </row>
@@ -8627,22 +8627,22 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>1605</t>
+          <t>4077</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>669239</t>
+          <t>735523</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>669239</t>
+          <t>735523</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>669239</t>
+          <t>735523</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -8662,22 +8662,22 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>1811</t>
+          <t>4484</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>730445</t>
+          <t>808268</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>730445</t>
+          <t>808268</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>730445</t>
+          <t>808268</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -8697,22 +8697,22 @@
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>3416</t>
+          <t>8561</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>1399684</t>
+          <t>1543791</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>1399684</t>
+          <t>1543791</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>1399684</t>
+          <t>1543791</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
